--- a/biology/Zoologie/Chindongo_minutus/Chindongo_minutus.xlsx
+++ b/biology/Zoologie/Chindongo_minutus/Chindongo_minutus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chindongo minutus est une espèce de poissons d'eau douce de la famille des Cichlidae (ordre des Cichliformes) endémique du lac Malawi en Afrique.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chindongo minutus peut mesurer jusqu'à 66 mm, queue non comprise, pour les mâles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chindongo minutus peut mesurer jusqu'à 66 mm, queue non comprise, pour les mâles.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Chindongo minutus (Fryer (d), 1956)[2]. Pour le GBIF ce taxon n'est pas valide et le considère comme un synonyme de Pseudotropheus minutus[3].
-L'espèce a été initialement classée dans le genre Pseudotropheus sous le protonyme Pseudotropheus minutus Fryer, 1956[2].
-Chindongo minutus a pour synonyme[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Chindongo minutus (Fryer (d), 1956). Pour le GBIF ce taxon n'est pas valide et le considère comme un synonyme de Pseudotropheus minutus.
+L'espèce a été initialement classée dans le genre Pseudotropheus sous le protonyme Pseudotropheus minutus Fryer, 1956.
+Chindongo minutus a pour synonyme :
 Pseudotropheus minutus Fryer, 1956</t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du latin minutus, « miette, poussière », lui a été donné en référence à sa petite taille[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin minutus, « miette, poussière », lui a été donné en référence à sa petite taille.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) G. Fryer, « New species of cichlid fishes from Lake Nyasa », Revue de Zoologie et de Botanique Africaines, Belgique, vol. 53, nos 1-2,‎ 14 avril 1956, p. 81-91 (ISSN 0035-1814).</t>
         </is>
